--- a/Data/raw/TST_Srinivasan_2021-10_FA/TST_2021-10_FA_metadata.xlsx
+++ b/Data/raw/TST_Srinivasan_2021-10_FA/TST_2021-10_FA_metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t xml:space="preserve">General</t>
   </si>
@@ -41,106 +41,100 @@
     <t xml:space="preserve">DIC Analysis </t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fracture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fracture Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Crack length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatigue Test Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quasi-static test type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuring Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliability Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
+    <t xml:space="preserve">laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">researcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fracture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fracture mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatigue test type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quasi-static test type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature test type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measuring equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reliability level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
-    <t xml:space="preserve">Images Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiber Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiber form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixing ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curing Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curing Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curing Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiber volume ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacking Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joint type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuring points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition</t>
+    <t xml:space="preserve">images repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curing time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curing temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curing pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber volume ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stacking sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measuring points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subset size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step size</t>
   </si>
   <si>
     <t xml:space="preserve">CCLAB</t>
@@ -165,7 +159,7 @@
     <t xml:space="preserve">MTS 25 kN</t>
   </si>
   <si>
-    <t xml:space="preserve">Load controlled</t>
+    <t xml:space="preserve">Load Controlled</t>
   </si>
   <si>
     <t xml:space="preserve">Adhesives</t>
@@ -177,52 +171,124 @@
     <t xml:space="preserve">100/34</t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specimen name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stress Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run-out </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displacement controlled loading rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load controlled loading rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial crack length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x corrdinate of measuring point #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y corrdinate of measuring point #</t>
+    <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the laboratory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name Lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting month of experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigue or quasi-static experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fracture experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of fracture mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant Amplitude (CA), Variable Amplitude(VA), Block Loading (BL), ......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensile, Compressive, Shear, Bending, Fracture, Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA, DSC, Fire, Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test machine name with load cell capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load or displacemnet controlled experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title of the journal or conference paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastname of primary author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publication year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI of the journal/conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link to (e.g. Zenodo) repository with images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composites, Adhesives, Adhesive joints, other polymers, Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber material type (carbon, glass, aramid, basalt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidirectional, woven fabric, random fiber mat,...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber weight in terms of g/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoxy, thermoplastics, vinyl esters, Trade name, Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade Name, Family Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resin : hardner ratio in terms of weight percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwell time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwell curing temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwell curing pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of fiber content in the composite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">composite layup sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of measuring points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subset size used to analyse the DIC images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step size used to analyse the DIC images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thickness</t>
   </si>
   <si>
     <t xml:space="preserve">BAM2_T1_60_1</t>
@@ -238,9 +304,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[h]:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -344,7 +409,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,10 +438,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,19 +446,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,27 +462,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,57 +483,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="B1:AM1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG2" activeCellId="0" sqref="AG2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="26.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="12.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="11.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="38" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="26.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="38" style="1" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -511,30 +542,30 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="3"/>
       <c r="AF1" s="3" t="s">
         <v>4</v>
       </c>
@@ -544,184 +575,385 @@
       <c r="AH1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="6" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9" t="s">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="6" t="s">
+      <c r="AA3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+    </row>
+    <row r="4" s="9" customFormat="true" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="6" t="n">
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF4" s="14"/>
-    </row>
+      <c r="Y4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -739,185 +971,177 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="15" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="15" width="25.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="35.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="15" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="12.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="15" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="15" width="18.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="15" width="28.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="15" width="33.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="15" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="12" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="12" width="25.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="12" width="35.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="12" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="12" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="12" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="12" width="12.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="12" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="12" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="12" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="12" width="33.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="12" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="17" t="n">
+      <c r="B2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="13" t="n">
         <v>41.388</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="n">
+      <c r="F2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="H2" s="13" t="n">
         <v>3.9</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="17" t="n">
+      <c r="B3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="13" t="n">
         <v>34.49</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17" t="n">
+      <c r="F3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="13" t="n">
         <v>12.85</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="H3" s="13" t="n">
         <v>3.87</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="20"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -926,6 +1150,18 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -934,6 +1170,18 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -942,6 +1190,18 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -950,118 +1210,226 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Data/raw/TST_Srinivasan_2021-10_FA/TST_2021-10_FA_metadata.xlsx
+++ b/Data/raw/TST_Srinivasan_2021-10_FA/TST_2021-10_FA_metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Dharun Vadugappatty Srinivasan</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-11</t>
+    <t xml:space="preserve">2021-10</t>
   </si>
   <si>
     <t xml:space="preserve">FA</t>
@@ -485,8 +485,8 @@
   </sheetPr>
   <dimension ref="B1:AM1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -973,11 +973,11 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="16.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="12" width="17.44"/>
